--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/amma_orphans_station_configuration_extended.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/amma_orphans_station_configuration_extended.xlsx
@@ -636,7 +636,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>62600_amma.csv</t>
+          <t>62840_amma.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-20777-0-62600</t>
+          <t>0-20777-0-62840</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>62600</t>
+          <t>62840</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[31.21, 31.21]</t>
+          <t>[31.390000000000004, 31.390000000000004]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[21.49, 21.49]</t>
+          <t>[9.33, 9.33]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>20060304</t>
+          <t>20060917</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>20060304</t>
+          <t>20060917</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>62840_amma.csv</t>
+          <t>62600_amma.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-20777-0-62840</t>
+          <t>0-20777-0-62600</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>62840</t>
+          <t>62600</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[31.390000000000004, 31.390000000000004]</t>
+          <t>[31.21, 31.21]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[9.33, 9.33]</t>
+          <t>[21.49, 21.49]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>20060917</t>
+          <t>20060304</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>20060917</t>
+          <t>20060304</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
